--- a/LMS_PAManage/site/src/assets/pa_request_test1.xlsx
+++ b/LMS_PAManage/site/src/assets/pa_request_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\LMSManagement\LMS_PAManage\site\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DC462B-BA57-46C8-98AC-A3982E692C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983EA5B-40DB-4E7D-8BCC-AE6C3F2D458C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>DRUG NAME</t>
   </si>
   <si>
-    <t>INSURACE CODE</t>
-  </si>
-  <si>
     <t>PHYSICIAN</t>
   </si>
   <si>
@@ -508,6 +505,9 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>INSURANCE CODE</t>
   </si>
 </sst>
 </file>
@@ -892,13 +892,13 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I1" s="6"/>
     </row>
@@ -935,17 +935,17 @@
         <v>43209</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -957,17 +957,17 @@
         <v>43209</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -979,13 +979,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -997,13 +997,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1015,13 +1015,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1033,13 +1033,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1051,13 +1051,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1069,17 +1069,17 @@
         <v>43209</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1091,17 +1091,17 @@
         <v>43209</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1113,17 +1113,17 @@
         <v>43210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1135,17 +1135,17 @@
         <v>43209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1157,13 +1157,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1175,13 +1175,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1193,13 +1193,13 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1211,17 +1211,17 @@
         <v>43209</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1233,13 +1233,13 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1251,13 +1251,13 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1269,13 +1269,13 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1287,13 +1287,13 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1305,13 +1305,13 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1323,17 +1323,17 @@
         <v>43209</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1345,17 +1345,17 @@
         <v>43209</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1367,13 +1367,13 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1385,13 +1385,13 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1403,13 +1403,13 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1421,13 +1421,13 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1439,13 +1439,13 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1457,17 +1457,17 @@
         <v>43209</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1479,13 +1479,13 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -1497,17 +1497,17 @@
         <v>43209</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1519,13 +1519,13 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -1537,13 +1537,13 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -1555,13 +1555,13 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -1573,13 +1573,13 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1591,13 +1591,13 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -1609,17 +1609,17 @@
         <v>43209</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1631,13 +1631,13 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1649,13 +1649,13 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -1667,13 +1667,13 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -1685,13 +1685,13 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -1703,13 +1703,13 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -1721,17 +1721,17 @@
         <v>43209</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -1743,17 +1743,17 @@
         <v>43209</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -1765,13 +1765,13 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -1783,13 +1783,13 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -1801,13 +1801,13 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -1819,17 +1819,17 @@
         <v>43209</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -1841,13 +1841,13 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -1859,13 +1859,13 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -1877,13 +1877,13 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -1895,13 +1895,13 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -1913,13 +1913,13 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -1931,17 +1931,17 @@
         <v>43210</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -1953,17 +1953,17 @@
         <v>43209</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -1975,13 +1975,13 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -1993,13 +1993,13 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -2011,13 +2011,13 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2029,13 +2029,13 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -2047,17 +2047,17 @@
         <v>43209</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -2069,13 +2069,13 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -2087,13 +2087,13 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -2105,13 +2105,13 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -2123,13 +2123,13 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2141,17 +2141,17 @@
         <v>43210</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -2163,17 +2163,17 @@
         <v>43209</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -2185,17 +2185,17 @@
         <v>43210</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -2207,17 +2207,17 @@
         <v>43210</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -2229,17 +2229,17 @@
         <v>43209</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2251,13 +2251,13 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2269,13 +2269,13 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -2287,13 +2287,13 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -2305,17 +2305,17 @@
         <v>43210</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -2327,17 +2327,17 @@
         <v>43210</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -2349,17 +2349,17 @@
         <v>43209</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2371,13 +2371,13 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -2389,17 +2389,17 @@
         <v>43209</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -2411,17 +2411,17 @@
         <v>43209</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -2433,13 +2433,13 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -2451,13 +2451,13 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -2469,13 +2469,13 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -2487,13 +2487,13 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -2505,17 +2505,17 @@
         <v>43210</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -2527,17 +2527,17 @@
         <v>43209</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -2549,17 +2549,17 @@
         <v>43210</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -2571,17 +2571,17 @@
         <v>43210</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -2593,17 +2593,17 @@
         <v>43210</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -2615,17 +2615,17 @@
         <v>43210</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -2637,17 +2637,17 @@
         <v>43210</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -2659,17 +2659,17 @@
         <v>43210</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -2681,17 +2681,17 @@
         <v>43210</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -2703,17 +2703,17 @@
         <v>43210</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -2725,13 +2725,13 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -2743,13 +2743,13 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H94" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -2761,13 +2761,13 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -2779,17 +2779,17 @@
         <v>43210</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -2801,17 +2801,17 @@
         <v>43210</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -2823,17 +2823,17 @@
         <v>43210</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -2845,17 +2845,17 @@
         <v>43210</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -2867,13 +2867,13 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -2885,13 +2885,13 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -2903,13 +2903,13 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -2921,17 +2921,17 @@
         <v>43210</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -2943,17 +2943,17 @@
         <v>43210</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -2965,13 +2965,13 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -2983,13 +2983,13 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -3001,13 +3001,13 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -3019,17 +3019,17 @@
         <v>43210</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -3041,13 +3041,13 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -3059,17 +3059,17 @@
         <v>43210</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -3081,17 +3081,17 @@
         <v>43210</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -3103,17 +3103,17 @@
         <v>43210</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -3125,13 +3125,13 @@
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
